--- a/biology/Médecine/Pierre_Pansier/Pierre_Pansier.xlsx
+++ b/biology/Médecine/Pierre_Pansier/Pierre_Pansier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Pansier est un ophtalmologue, historien spécialiste du Comtat Venaissin et félibre en provençal[1], né à Carpentras le 19 août 1864 et mort à Avignon le 26 octobre 1934.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Pansier est un ophtalmologue, historien spécialiste du Comtat Venaissin et félibre en provençal, né à Carpentras le 19 août 1864 et mort à Avignon le 26 octobre 1934.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Pansier est le fils de Louis Ulysse Pansier, avocat fervent royaliste. Il a été l'élève du lycée Saint-Joseph d'Avignon avant de suivre les cours de droit et de médecine à l'université de Montpellier. Il a obtenu son doctorat de médecine sur une thèse présentée le 16 juillet 1892 intitulée : Les Manifestations oculaires de l'hystérie. Œil hystérique. Il ouvre ensuite un cabinet d'ophtalmologie à Avignon. Il est élu chirurgien en chef des hôpitaux d'Avignon, en 1913, tout en conservant son cabinet.
 La première manifestation de sa passion pour l'histoire apparaît en 1899 avec le don d'un de ses manuscrits au Museum Calvet, actuelle Fondation Calvet :  Livre contenant le revenu de l’hospital Saincte Marthe (XVIe siècle). Cette passion va se développer sur l'histoire de la médecine, l'histoire des institutions charitables, l'histoire d'Avignon et du Comtat Venaissin et l'histoire de la langue et du folklore provençal.
 Il est membre de l'Académie de Vaucluse et se rapproche du Musée Calvet. Il fonde en 1912 sa propre revue pour y publier ses articles : Les Annales d'Avignon et du Comtat Venaissin qu'il finance, jusqu'en 1929, quand le Musée Calvet prend la suite, mais s'arrêtera peu de temps après la mort de son fondateur.
-Il préside l'école félibréenne l’Avignounenco[1]. Il est également en contact avec ses confrères dans toute l'Europe qui s'intéressent aux mêmes sujets[Lesquels ?].
+Il préside l'école félibréenne l’Avignounenco. Il est également en contact avec ses confrères dans toute l'Europe qui s'intéressent aux mêmes sujets[Lesquels ?].
 Il s'est marié en 1911 avec Fernande Calvet, fille naturelle d'une couturière, sans descendance.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rue Pierre Pansier, à Avignon,
 Rue Pierre Pansier, à Carpentras,
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traité de l'œil artificiel, A. Maloine éditeur, Paris, 1895 (lire en ligne)
 Traité d'électrothérapie oculaire, A. Maloine éditeur, Paris, 1896 (lire en ligne)
@@ -607,9 +625,43 @@
 « Notice biographique de Bernard Rascas », dans Mémoires de l'Académie de Vaucluse, 1929, 2e série, tome 29, p. 15-29 (lire en ligne)
 Dictionnaire des anciennes rues d'Avignon, Roumanille, 1930, réimp. Laffitte reprints, 1979
 Les palais cardinalices d'Avignon aux XIVe et XVe siècles, Roumanille, 1932, 3 tomes
-Le théâtre provençal à Avignon au XVIIe siècle, Laffitte reprints, 1973
-Annales d'Avignon et du Comtat Venaissin
-Antoine Carteron, lapicide; ses travaux à Avignon de 1484 à 1492, 1912, tome 1, p. 5-18
+Le théâtre provençal à Avignon au XVIIe siècle, Laffitte reprints, 1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Pansier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Pansier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Annales d'Avignon et du Comtat Venaissin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Antoine Carteron, lapicide; ses travaux à Avignon de 1484 à 1492, 1912, tome 1, p. 5-18
 Les anciennes chapelles d'Avignon ; La chapelle et l'aumône de Notre-Dame du Salut au portail Mahanen, 1912, tome 1, p. 29-38
 Le prieuré et l'hôpital de Notre-Dame de Fenolhet, 1912, tome 1, p. 69-79
 Le trésor de l'église de Noire-Dame des Doms et la guerre des Catalans, 1912, tome 1, p. 105-128
